--- a/output/fit_clients/fit_round_199.xlsx
+++ b/output/fit_clients/fit_round_199.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2357532698.537519</v>
+        <v>2132818129.99604</v>
       </c>
       <c r="F2" t="n">
-        <v>0.089402858613637</v>
+        <v>0.09674780747215028</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03401712572101023</v>
+        <v>0.04075251730437956</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1178766392.964898</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1813442763.340178</v>
+        <v>1780420082.219143</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1535044254742922</v>
+        <v>0.1706095798586739</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03992595601793156</v>
+        <v>0.03160936198458882</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>906721392.8147925</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3508134714.915013</v>
+        <v>4225916390.406766</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1134502669749111</v>
+        <v>0.1331901663789506</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03443599407020497</v>
+        <v>0.03033538000848144</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>72</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1754067336.779761</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3410074541.757955</v>
+        <v>3020209113.804624</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09817364899030463</v>
+        <v>0.09490145228196144</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04655736089543096</v>
+        <v>0.03412478497206218</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1705037313.552926</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2592659191.400946</v>
+        <v>2362510405.498304</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1308723491167067</v>
+        <v>0.1400705207778031</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0492694040092625</v>
+        <v>0.03574925526666511</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1296329561.136143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2993899392.274734</v>
+        <v>2279300924.485845</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09800343544179765</v>
+        <v>0.07982179335712485</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04386149123642723</v>
+        <v>0.03097648649749468</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>61</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1496949661.648919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2840611102.358685</v>
+        <v>3422599395.966249</v>
       </c>
       <c r="F8" t="n">
-        <v>0.179862824000396</v>
+        <v>0.1573826797617753</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02198094385697906</v>
+        <v>0.0321837208542437</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>64</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1420305592.378124</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2023071914.824563</v>
+        <v>2099499915.220661</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1718891594885932</v>
+        <v>0.1934163121943857</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03030091332526536</v>
+        <v>0.02817247081591218</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1011535980.798172</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5755268828.769692</v>
+        <v>5052520654.822818</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1529232735389686</v>
+        <v>0.2041655330171785</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04615338567403316</v>
+        <v>0.03328157172349005</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>84</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2877634572.136811</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3477756540.114444</v>
+        <v>3155745560.787445</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1561024576625993</v>
+        <v>0.1832358486942844</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04972677457278595</v>
+        <v>0.03772086669022646</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>83</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1738878246.299691</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3111162011.263201</v>
+        <v>2042690531.109034</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1848165273453823</v>
+        <v>0.1960264524453158</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04426026258575695</v>
+        <v>0.04975269820208376</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>71</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1555581033.819488</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5188090568.901743</v>
+        <v>4450247747.673387</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1016212860131926</v>
+        <v>0.06775996165671394</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02720418362753776</v>
+        <v>0.02730981145182138</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>67</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2594045279.011431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2520590970.305382</v>
+        <v>2748253009.534721</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1498804538074651</v>
+        <v>0.1745232134441782</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02765455553563861</v>
+        <v>0.0389140601895275</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>66</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1260295554.273107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1147511708.582802</v>
+        <v>1506202438.78143</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09438353744179073</v>
+        <v>0.08410587935396674</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04299831349144918</v>
+        <v>0.03954381604388395</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>573755859.8522421</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1933781169.016656</v>
+        <v>2322882209.301105</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1005534006643846</v>
+        <v>0.09808680286887263</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05014710795543568</v>
+        <v>0.03141701560355351</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30</v>
-      </c>
-      <c r="J16" t="n">
-        <v>966890665.8934709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4380039299.582516</v>
+        <v>4058032822.534989</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1175027049698999</v>
+        <v>0.1743379439299489</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03879445226642182</v>
+        <v>0.04627489592474383</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>58</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2190019665.596088</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3621346827.098319</v>
+        <v>3832090207.224008</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1170843839141847</v>
+        <v>0.1272722337989493</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02159713738066608</v>
+        <v>0.02734901280255235</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>65</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1810673398.780037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1312874855.477407</v>
+        <v>1370123812.36238</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1314816592918846</v>
+        <v>0.1433786067555068</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02344179585556305</v>
+        <v>0.02742174114619577</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>656437533.1128526</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2082743040.37045</v>
+        <v>2396119094.035393</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1121638957991936</v>
+        <v>0.1114189430721769</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02177744643321198</v>
+        <v>0.02984925631379147</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>33</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1041371537.703105</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2309126882.553323</v>
+        <v>2297803549.667022</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07448783139457112</v>
+        <v>0.06914884682541725</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03577467007058774</v>
+        <v>0.03040492107151653</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1154563447.612879</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3061739819.31216</v>
+        <v>3889972191.563087</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09035305967188269</v>
+        <v>0.1377951830567998</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03962132875131379</v>
+        <v>0.03624517998465036</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>55</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1530869967.46692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1089750408.985761</v>
+        <v>1466144315.097699</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1613315895429333</v>
+        <v>0.1840246439164764</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05295627205478564</v>
+        <v>0.04799863085710424</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>544875259.5356649</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2997650652.093561</v>
+        <v>4130682170.521184</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1408695055895063</v>
+        <v>0.1470550455860556</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02487314426698288</v>
+        <v>0.03496729229351885</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>58</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1498825361.422697</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1282217578.246584</v>
+        <v>1239160688.065301</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1122989665529163</v>
+        <v>0.1088892569729523</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0260842399995954</v>
+        <v>0.02116692991386453</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>641108788.1597916</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1385378301.804179</v>
+        <v>914061551.9871775</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09429422761446786</v>
+        <v>0.1156315972925039</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03124696184690352</v>
+        <v>0.03164052908857416</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>692689217.2761147</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3644426765.424619</v>
+        <v>3246181213.52484</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1346332982160269</v>
+        <v>0.154584831738366</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0212460280068416</v>
+        <v>0.01933664623458601</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1822213410.504918</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2389977544.353592</v>
+        <v>3433488041.723472</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1327846654058419</v>
+        <v>0.1066179033192494</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03311568918147851</v>
+        <v>0.03125129312067521</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>64</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1194988730.433363</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4082328001.887088</v>
+        <v>5434217616.11975</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1055043384453783</v>
+        <v>0.1260181619173259</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02883912833138115</v>
+        <v>0.0378284226640402</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>88</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2041164012.070636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2073383960.829365</v>
+        <v>1561531766.229484</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09217107954176795</v>
+        <v>0.1230000689250176</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03697856261251987</v>
+        <v>0.0333326664839746</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1036692026.239526</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1132783237.80167</v>
+        <v>1294199072.957192</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06811166004640454</v>
+        <v>0.08100449293010956</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04263109175450826</v>
+        <v>0.03411417139735113</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>566391586.1693816</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1766671768.861492</v>
+        <v>1519823822.95161</v>
       </c>
       <c r="F32" t="n">
-        <v>0.103406006751334</v>
+        <v>0.08035553849205913</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03128232835205309</v>
+        <v>0.02534903099754232</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>883336007.9689759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2087046345.989237</v>
+        <v>2284028129.545273</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1431143597546143</v>
+        <v>0.1958559006037859</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05986452967036719</v>
+        <v>0.04470315317212979</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>59</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1043523246.345554</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1055546410.670659</v>
+        <v>1139748094.548945</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09051541709291547</v>
+        <v>0.09047051721203601</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02594858282245586</v>
+        <v>0.02344526120795959</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>527773234.0326377</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1137627947.777916</v>
+        <v>1319564628.286411</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1056769775490818</v>
+        <v>0.08535733590608588</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03279147928105919</v>
+        <v>0.03814520684551063</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>568813962.2644504</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3147172181.526221</v>
+        <v>2408852218.325786</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1310811947406208</v>
+        <v>0.1775903370254631</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02359888310954865</v>
+        <v>0.02411040989113047</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>50</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1573586060.885541</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1894772916.95374</v>
+        <v>2702339963.818847</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09259116087296922</v>
+        <v>0.07971171721264279</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03812903135038436</v>
+        <v>0.02583046362917931</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>53</v>
-      </c>
-      <c r="J37" t="n">
-        <v>947386471.2556849</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2032671893.303358</v>
+        <v>1582038697.117839</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08258170893352766</v>
+        <v>0.1122520178497806</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02890117856163262</v>
+        <v>0.02651528371733399</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1016335920.641735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1830823582.811262</v>
+        <v>1336823284.777457</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1493350036830254</v>
+        <v>0.1351115919555622</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02839477055072493</v>
+        <v>0.0213243180487187</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>915411811.5904632</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1690685454.476771</v>
+        <v>1419566028.666428</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1239808878001774</v>
+        <v>0.1132452322728207</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05571525908886917</v>
+        <v>0.04938047535482157</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>845342645.6936365</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1794479975.935371</v>
+        <v>1909105032.683783</v>
       </c>
       <c r="F41" t="n">
-        <v>0.157445234347758</v>
+        <v>0.1219472973990282</v>
       </c>
       <c r="G41" t="n">
-        <v>0.036988398057548</v>
+        <v>0.03591621977946065</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>50</v>
-      </c>
-      <c r="J41" t="n">
-        <v>897240082.2690622</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4155693683.446145</v>
+        <v>3540961321.426165</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08728391329171112</v>
+        <v>0.09491726869750745</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03010486454747375</v>
+        <v>0.03573923676085219</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>66</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2077846881.685295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3071095112.586487</v>
+        <v>2127307426.645111</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1297467972526808</v>
+        <v>0.1741362291244485</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0204799182780946</v>
+        <v>0.01839352927946478</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>68</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1535547547.52444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1682144847.611867</v>
+        <v>1877848026.318653</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0690790539010341</v>
+        <v>0.07182013891949152</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02375336685463663</v>
+        <v>0.0334966253014577</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>841072466.6977472</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2086384478.977159</v>
+        <v>1771860789.725066</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1637579246536631</v>
+        <v>0.1327534913675857</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04708526913081622</v>
+        <v>0.04658053513396891</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1043192239.06775</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3499255011.331669</v>
+        <v>5303621712.330691</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1763806463129893</v>
+        <v>0.1723355906461231</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05591945385611225</v>
+        <v>0.0468047076192102</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>71</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1749627446.502763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3856183593.148148</v>
+        <v>4471851090.406553</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1887909840493394</v>
+        <v>0.1600646079415576</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04163602809577659</v>
+        <v>0.04735014759381217</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>53</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1928091787.533095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4542696986.546079</v>
+        <v>2917252052.033228</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09675119068895298</v>
+        <v>0.08254441513620395</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02794556354241251</v>
+        <v>0.03272888080741201</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2271348496.105018</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1690281758.88535</v>
+        <v>1715282714.821275</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1908733842515629</v>
+        <v>0.1880719982133049</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03818934399795724</v>
+        <v>0.04095354170113538</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>845140881.8694828</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3166224041.615514</v>
+        <v>4152875951.37888</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1625724196201698</v>
+        <v>0.1579837767606608</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0487923312128757</v>
+        <v>0.0381367603930792</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>68</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1583112068.81251</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1039683974.234761</v>
+        <v>1223809710.325231</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1252350371009377</v>
+        <v>0.1182249543926796</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03589537573987166</v>
+        <v>0.04034120205970254</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>519842064.6396553</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3594147999.028547</v>
+        <v>4498907494.682573</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1313871120687453</v>
+        <v>0.1156907616864406</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0560005105939856</v>
+        <v>0.05471919042961722</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>82</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1797074079.860931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3336785504.273824</v>
+        <v>2721292393.474604</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1824143199485315</v>
+        <v>0.1296704768492506</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0243116131524459</v>
+        <v>0.03092859537809282</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>56</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1668392761.329117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3423753100.34718</v>
+        <v>3196368671.570804</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1271626382484394</v>
+        <v>0.1663918493595627</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04194385463053989</v>
+        <v>0.03633622752359881</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>65</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1711876568.973515</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4567455818.226177</v>
+        <v>3821065853.683843</v>
       </c>
       <c r="F55" t="n">
-        <v>0.170120782582292</v>
+        <v>0.1712692540652492</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02807854529898256</v>
+        <v>0.02407759256365321</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>52</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2283727909.03162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1720463628.135005</v>
+        <v>1790456535.857425</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1459775800506915</v>
+        <v>0.1370255757683057</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04145550489199486</v>
+        <v>0.04731910305793093</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>860231823.6120578</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3121179092.321698</v>
+        <v>2762042771.582144</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1343261826450942</v>
+        <v>0.1202082031927157</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02232845324920026</v>
+        <v>0.01986730929438624</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>63</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1560589560.709569</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1457772867.726817</v>
+        <v>1827919682.579716</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1322862754607794</v>
+        <v>0.1530549355553817</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03070196803537066</v>
+        <v>0.03134807876968627</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>728886468.8225884</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3319513556.297344</v>
+        <v>5309211742.265578</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08366533799180796</v>
+        <v>0.1201850235456991</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03688044432550126</v>
+        <v>0.04429807897628246</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>55</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1659756786.906792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3749753335.273432</v>
+        <v>3789141248.068481</v>
       </c>
       <c r="F60" t="n">
-        <v>0.162753109660893</v>
+        <v>0.1985444932395502</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02226038743857412</v>
+        <v>0.02359067651428308</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>62</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1874876816.610913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3371644663.437395</v>
+        <v>2590275345.715617</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1447628428100935</v>
+        <v>0.172620623978447</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02559722664876844</v>
+        <v>0.02979349109343847</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>68</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1685822277.121686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1285427073.756971</v>
+        <v>2049999459.363087</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1937759291500738</v>
+        <v>0.1493122982093334</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04124263869887591</v>
+        <v>0.04581258663126034</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>642713487.7421329</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4670770895.034563</v>
+        <v>4673699289.706903</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08883424855116667</v>
+        <v>0.0776089947796792</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0336423915358853</v>
+        <v>0.03925374229779156</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>56</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2335385479.937408</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3886486262.525742</v>
+        <v>4155734988.403348</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1345848386590207</v>
+        <v>0.1376395274812283</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03037215599757334</v>
+        <v>0.02855813738848951</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>62</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1943243159.111563</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3821565923.154438</v>
+        <v>5414559327.596706</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1726648235144007</v>
+        <v>0.1442807596781722</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02723891036398288</v>
+        <v>0.02147877402425015</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>71</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1910782990.767456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5433662487.765027</v>
+        <v>3934620508.971641</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1270809751359702</v>
+        <v>0.1550872570505503</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04604522071246106</v>
+        <v>0.03341898141078063</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>58</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2716831294.293283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2437455261.254195</v>
+        <v>2796584954.400608</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09481799599671274</v>
+        <v>0.08010038083250595</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04399837607787292</v>
+        <v>0.03306182556341582</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>65</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1218727696.49934</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5839506477.335923</v>
+        <v>5763492565.723633</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1109382890320333</v>
+        <v>0.1193008198850498</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04579099775399626</v>
+        <v>0.04459274692333745</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>65</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2919753345.910661</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2325218867.320842</v>
+        <v>1733675966.713804</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1636094236800608</v>
+        <v>0.1115824638354443</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04720290822631822</v>
+        <v>0.05080949841316077</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1162609480.628199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3419911721.836287</v>
+        <v>2899835454.504828</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07875065068900793</v>
+        <v>0.08635279348718991</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03621688511515279</v>
+        <v>0.03943830576538752</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>57</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1709955865.28247</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4414494736.428323</v>
+        <v>4928346330.584448</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1294428557689035</v>
+        <v>0.1685463635589453</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02956394006430045</v>
+        <v>0.03336563865185857</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>73</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2207247430.188203</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1954691542.223674</v>
+        <v>2207619000.252899</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07922544931600443</v>
+        <v>0.1084854981307702</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03434946803452429</v>
+        <v>0.03564206795888732</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>977345724.7638113</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2813526824.746607</v>
+        <v>2239450219.470757</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1117726768731261</v>
+        <v>0.07076208212979908</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04771480180772745</v>
+        <v>0.03920567588815191</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>77</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1406763425.416257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3429780762.345478</v>
+        <v>3746445517.990167</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1378045426192512</v>
+        <v>0.1396203476399998</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02279685510781489</v>
+        <v>0.03465941902463499</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>68</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1714890409.407411</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1578279937.1032</v>
+        <v>2034580746.890236</v>
       </c>
       <c r="F75" t="n">
-        <v>0.112753981591789</v>
+        <v>0.1105765537074035</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03097162546158842</v>
+        <v>0.02494170787945205</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>789139972.223001</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3647117705.759999</v>
+        <v>3276197293.549574</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08020053793544164</v>
+        <v>0.07722806283077863</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02229352492782585</v>
+        <v>0.02442416485335773</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>47</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1823558822.79576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1472929663.921524</v>
+        <v>2235055632.014049</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1415764376554888</v>
+        <v>0.1772616970098403</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02209860964615486</v>
+        <v>0.02911383601927276</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>736464815.6076407</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3657754990.426287</v>
+        <v>3321298360.183166</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1219448345743842</v>
+        <v>0.1261310623398178</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05174948654504831</v>
+        <v>0.05360060239997607</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>70</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1828877485.431658</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1824670691.063139</v>
+        <v>1471817495.455518</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1117176284984159</v>
+        <v>0.1117503434436454</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03999743579703122</v>
+        <v>0.03837773816968101</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>912335436.4974941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5346549741.738811</v>
+        <v>3962099397.21327</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08104043087476862</v>
+        <v>0.1050179188816245</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03600523166009147</v>
+        <v>0.02638803160754056</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>42</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2673274937.292703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4446153295.509748</v>
+        <v>3242966034.093026</v>
       </c>
       <c r="F81" t="n">
-        <v>0.135192344628737</v>
+        <v>0.09029286810564324</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0206022115744261</v>
+        <v>0.03085975236164046</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>45</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2223076627.508292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4493367884.367975</v>
+        <v>5535702411.287169</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1901576138381926</v>
+        <v>0.1698820106029106</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02814837285960155</v>
+        <v>0.02808728985954816</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>71</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2246683954.403503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2241057717.502692</v>
+        <v>2436974969.572541</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1356587632116579</v>
+        <v>0.1019758114239369</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04460026367041028</v>
+        <v>0.03994707783058061</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1120528874.081651</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1984690661.521803</v>
+        <v>2198613334.528985</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09728379987363757</v>
+        <v>0.09431465672177367</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03486767781872634</v>
+        <v>0.03581141842420092</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>992345337.9782965</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2976092410.323689</v>
+        <v>3078550091.443943</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1235271493613416</v>
+        <v>0.1777479044783496</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05572406520469878</v>
+        <v>0.03690237922267778</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>75</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1488046262.645759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1841915247.931635</v>
+        <v>2106691904.80393</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1305771456755862</v>
+        <v>0.116019491930668</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02520685168951571</v>
+        <v>0.01883441779266289</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>920957629.5837123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1378696062.149052</v>
+        <v>1174535691.4665</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1641897353055028</v>
+        <v>0.1356127808733055</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0290021148229034</v>
+        <v>0.04023882883280763</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>689348132.4301718</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2607908017.373833</v>
+        <v>3010863453.101553</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1673331673997806</v>
+        <v>0.1240254272176397</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03725544086301222</v>
+        <v>0.03505906675968767</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>79</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1303954000.359894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3010675906.012318</v>
+        <v>3004061734.486022</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1562003655700432</v>
+        <v>0.1460800270760501</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03436321336585089</v>
+        <v>0.03048906446295013</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>69</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1505337990.325795</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1666892646.58947</v>
+        <v>1668157750.720379</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1338890034635072</v>
+        <v>0.1215483731510263</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05322087540922675</v>
+        <v>0.03708016933705045</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>833446332.5258821</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1643242022.953368</v>
+        <v>1376083660.239872</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1912447454001566</v>
+        <v>0.1889309393883563</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05096493358657629</v>
+        <v>0.04330529101099296</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>821621031.2793567</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2157129549.340422</v>
+        <v>2261803523.525472</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09802104474785991</v>
+        <v>0.1078538249640454</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03206036507152179</v>
+        <v>0.04440171961782584</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>48</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1078564732.691503</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3907818575.518722</v>
+        <v>4058198825.469711</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1195309188082935</v>
+        <v>0.1374858582485644</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04102627307531891</v>
+        <v>0.04034997061875493</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1953909294.295624</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2007793047.011884</v>
+        <v>2005390674.71069</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1339569044761811</v>
+        <v>0.1593473035475182</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03567444916185572</v>
+        <v>0.02960313032404136</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1003896522.825461</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2797031791.248116</v>
+        <v>2175172744.681323</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1139339744118289</v>
+        <v>0.08502304842165787</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03462990328554896</v>
+        <v>0.03327991104502372</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>48</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1398515910.120722</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1876917029.45964</v>
+        <v>2149497204.922504</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1329564541343433</v>
+        <v>0.1292430624639718</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03867960983354529</v>
+        <v>0.03860258126648496</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>938458514.8235233</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4080423140.3425</v>
+        <v>4829674911.114318</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1392972504196377</v>
+        <v>0.1273029971921656</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02449226366196778</v>
+        <v>0.02548880680857139</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2040211632.99834</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3664677943.966864</v>
+        <v>2912883726.241146</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1156237811268886</v>
+        <v>0.1301088354433386</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02686972363004439</v>
+        <v>0.02868395870760497</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>53</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1832339001.737731</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2531704108.912642</v>
+        <v>2274776714.455959</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08932380204025474</v>
+        <v>0.1378605273498626</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02908579409510711</v>
+        <v>0.0233287585873744</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>62</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1265852006.461915</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4086524008.474175</v>
+        <v>2993636684.50532</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1213879916230528</v>
+        <v>0.1734468169966851</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02268967926268408</v>
+        <v>0.01920762588124024</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>61</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2043262081.786883</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3058282254.612165</v>
+        <v>2425186646.6208</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1483482917128974</v>
+        <v>0.1744662395833039</v>
       </c>
       <c r="G101" t="n">
-        <v>0.043915188974447</v>
+        <v>0.04386521942843626</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>80</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1529141224.018914</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_199.xlsx
+++ b/output/fit_clients/fit_round_199.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2132818129.99604</v>
+        <v>2060549443.095486</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09674780747215028</v>
+        <v>0.09569422301090807</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04075251730437956</v>
+        <v>0.02927228473477314</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1780420082.219143</v>
+        <v>2085630548.461062</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1706095798586739</v>
+        <v>0.176366745943266</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03160936198458882</v>
+        <v>0.03788810693939875</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4225916390.406766</v>
+        <v>4551400005.127536</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1331901663789506</v>
+        <v>0.1053921465419195</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03033538000848144</v>
+        <v>0.036094454887795</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3020209113.804624</v>
+        <v>2691551608.973083</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09490145228196144</v>
+        <v>0.07894995969662388</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03412478497206218</v>
+        <v>0.04206881506859642</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2362510405.498304</v>
+        <v>2068864957.429515</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1400705207778031</v>
+        <v>0.09508650849139968</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03574925526666511</v>
+        <v>0.05480925992590036</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2279300924.485845</v>
+        <v>2236948491.035978</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07982179335712485</v>
+        <v>0.06442275665156733</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03097648649749468</v>
+        <v>0.0377000431825126</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3422599395.966249</v>
+        <v>3179019018.195275</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1573826797617753</v>
+        <v>0.1512704357251068</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0321837208542437</v>
+        <v>0.02740741280477804</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2099499915.220661</v>
+        <v>1571298416.706146</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1934163121943857</v>
+        <v>0.1343708581803702</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02817247081591218</v>
+        <v>0.02351251150927028</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5052520654.822818</v>
+        <v>5002993572.483476</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2041655330171785</v>
+        <v>0.1941510412087138</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03328157172349005</v>
+        <v>0.05074569899500912</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3155745560.787445</v>
+        <v>3445424421.794576</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1832358486942844</v>
+        <v>0.1641492817687959</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03772086669022646</v>
+        <v>0.03569939115889384</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2042690531.109034</v>
+        <v>3266889059.682655</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1960264524453158</v>
+        <v>0.1229313480916381</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04975269820208376</v>
+        <v>0.03343188184721093</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4450247747.673387</v>
+        <v>5233060829.516231</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06775996165671394</v>
+        <v>0.06146321620380275</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02730981145182138</v>
+        <v>0.02864815797938803</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2748253009.534721</v>
+        <v>2707480562.938282</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1745232134441782</v>
+        <v>0.1660131392103301</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0389140601895275</v>
+        <v>0.0274045468664567</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1506202438.78143</v>
+        <v>1719428132.772361</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08410587935396674</v>
+        <v>0.07315492657238057</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03954381604388395</v>
+        <v>0.04475126767083298</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2322882209.301105</v>
+        <v>1909329696.104946</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09808680286887263</v>
+        <v>0.08541768616626366</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03141701560355351</v>
+        <v>0.05067818370192067</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4058032822.534989</v>
+        <v>4447845226.189961</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1743379439299489</v>
+        <v>0.1365357935462118</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04627489592474383</v>
+        <v>0.03798643753708442</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3832090207.224008</v>
+        <v>2784600179.679851</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1272722337989493</v>
+        <v>0.1498514733854206</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02734901280255235</v>
+        <v>0.02884638390857816</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1370123812.36238</v>
+        <v>1104907334.556224</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1433786067555068</v>
+        <v>0.1359497118671721</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02742174114619577</v>
+        <v>0.02446872843618283</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2396119094.035393</v>
+        <v>2219787119.001365</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1114189430721769</v>
+        <v>0.1024330323957193</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02984925631379147</v>
+        <v>0.02834616677644813</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2297803549.667022</v>
+        <v>2597494764.925556</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06914884682541725</v>
+        <v>0.0988634233867033</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03040492107151653</v>
+        <v>0.03012090747164877</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3889972191.563087</v>
+        <v>3672596251.688306</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1377951830567998</v>
+        <v>0.1092690552996272</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03624517998465036</v>
+        <v>0.04507535452572862</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1466144315.097699</v>
+        <v>1138324873.325819</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1840246439164764</v>
+        <v>0.1748920568461215</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04799863085710424</v>
+        <v>0.03329589873319833</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4130682170.521184</v>
+        <v>2608250060.529081</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1470550455860556</v>
+        <v>0.1034928594876925</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03496729229351885</v>
+        <v>0.0262497321897784</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1239160688.065301</v>
+        <v>1216658431.011119</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1088892569729523</v>
+        <v>0.1117004793359111</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02116692991386453</v>
+        <v>0.02879488549345596</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>914061551.9871775</v>
+        <v>1082408938.1475</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1156315972925039</v>
+        <v>0.1071370441979115</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03164052908857416</v>
+        <v>0.0360862150678446</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3246181213.52484</v>
+        <v>3281676936.140016</v>
       </c>
       <c r="F27" t="n">
-        <v>0.154584831738366</v>
+        <v>0.1265247240668813</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01933664623458601</v>
+        <v>0.02338139827539183</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3433488041.723472</v>
+        <v>2726997141.093264</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1066179033192494</v>
+        <v>0.1367272377285597</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03125129312067521</v>
+        <v>0.03790842131552305</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5434217616.11975</v>
+        <v>3635791955.753507</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1260181619173259</v>
+        <v>0.1508861671083785</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0378284226640402</v>
+        <v>0.04042364695987491</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1561531766.229484</v>
+        <v>1539000400.372615</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1230000689250176</v>
+        <v>0.1380318682497912</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0333326664839746</v>
+        <v>0.03819247893011371</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1294199072.957192</v>
+        <v>903312809.716661</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08100449293010956</v>
+        <v>0.08179398684946751</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03411417139735113</v>
+        <v>0.04142401926107767</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1519823822.95161</v>
+        <v>1632706802.359434</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08035553849205913</v>
+        <v>0.08087144124740897</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02534903099754232</v>
+        <v>0.02997268060242117</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2284028129.545273</v>
+        <v>2477836775.405574</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1958559006037859</v>
+        <v>0.1993073015059087</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04470315317212979</v>
+        <v>0.05829641423456994</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1139748094.548945</v>
+        <v>1478521997.120202</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09047051721203601</v>
+        <v>0.07584652419185307</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02344526120795959</v>
+        <v>0.02052393039279926</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1319564628.286411</v>
+        <v>867568594.8593693</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08535733590608588</v>
+        <v>0.1185133760283347</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03814520684551063</v>
+        <v>0.03459312276246922</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2408852218.325786</v>
+        <v>2292578869.759619</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1775903370254631</v>
+        <v>0.1429445436473653</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02411040989113047</v>
+        <v>0.02088054707083432</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2702339963.818847</v>
+        <v>2396817894.461952</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07971171721264279</v>
+        <v>0.1059402203487398</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02583046362917931</v>
+        <v>0.04161165996111974</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1582038697.117839</v>
+        <v>2071812659.820481</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1122520178497806</v>
+        <v>0.08688075912518181</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02651528371733399</v>
+        <v>0.03164928318778838</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1336823284.777457</v>
+        <v>1715998469.857782</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1351115919555622</v>
+        <v>0.1732777894897472</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0213243180487187</v>
+        <v>0.03011931608382249</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1419566028.666428</v>
+        <v>1426881717.133152</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1132452322728207</v>
+        <v>0.1561509005549997</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04938047535482157</v>
+        <v>0.04626388879198501</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1909105032.683783</v>
+        <v>2753174278.230395</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1219472973990282</v>
+        <v>0.1593915599616289</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03591621977946065</v>
+        <v>0.02924487050968119</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3540961321.426165</v>
+        <v>3823635038.801029</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09491726869750745</v>
+        <v>0.08480008028233607</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03573923676085219</v>
+        <v>0.03109067019126592</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2127307426.645111</v>
+        <v>2876113470.530822</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1741362291244485</v>
+        <v>0.1981308258226242</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01839352927946478</v>
+        <v>0.02485054616666766</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1877848026.318653</v>
+        <v>1680818434.299011</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07182013891949152</v>
+        <v>0.09019964805836875</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0334966253014577</v>
+        <v>0.02929013859889109</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1771860789.725066</v>
+        <v>1548129913.103851</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1327534913675857</v>
+        <v>0.1346039082645273</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04658053513396891</v>
+        <v>0.05253643685882418</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5303621712.330691</v>
+        <v>5330779465.228202</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1723355906461231</v>
+        <v>0.1386786929637614</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0468047076192102</v>
+        <v>0.03810243367233693</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4471851090.406553</v>
+        <v>4303691150.814493</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1600646079415576</v>
+        <v>0.1488592854267558</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04735014759381217</v>
+        <v>0.04202034505100415</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2917252052.033228</v>
+        <v>3014825540.424739</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08254441513620395</v>
+        <v>0.06915605713766089</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03272888080741201</v>
+        <v>0.03452544958132189</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1715282714.821275</v>
+        <v>1832273418.452744</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1880719982133049</v>
+        <v>0.1819521622990134</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04095354170113538</v>
+        <v>0.0405309624514499</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4152875951.37888</v>
+        <v>2857954578.547839</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1579837767606608</v>
+        <v>0.1349298014851359</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0381367603930792</v>
+        <v>0.03292089524980972</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1223809710.325231</v>
+        <v>1044051602.610229</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1182249543926796</v>
+        <v>0.1580212392976468</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04034120205970254</v>
+        <v>0.03633564811363886</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4498907494.682573</v>
+        <v>4284024889.179441</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1156907616864406</v>
+        <v>0.1344984123931701</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05471919042961722</v>
+        <v>0.05126641846773729</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2721292393.474604</v>
+        <v>3349422038.990908</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1296704768492506</v>
+        <v>0.1293262861668841</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03092859537809282</v>
+        <v>0.03350775229050862</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3196368671.570804</v>
+        <v>3632553758.78386</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1663918493595627</v>
+        <v>0.141510933301647</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03633622752359881</v>
+        <v>0.04489263886905989</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3821065853.683843</v>
+        <v>4895599555.636208</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1712692540652492</v>
+        <v>0.197469522919953</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02407759256365321</v>
+        <v>0.02754595358176699</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1790456535.857425</v>
+        <v>1853612547.107419</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1370255757683057</v>
+        <v>0.1068456086880547</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04731910305793093</v>
+        <v>0.03860779307932532</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2762042771.582144</v>
+        <v>3079336667.217035</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1202082031927157</v>
+        <v>0.1228260666054515</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01986730929438624</v>
+        <v>0.02379871108140093</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1827919682.579716</v>
+        <v>1725925065.162632</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1530549355553817</v>
+        <v>0.1696182693697129</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03134807876968627</v>
+        <v>0.03374553737058954</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5309211742.265578</v>
+        <v>3777177101.483457</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1201850235456991</v>
+        <v>0.1133346376841061</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04429807897628246</v>
+        <v>0.03175277784317616</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3789141248.068481</v>
+        <v>2766631123.022254</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1985444932395502</v>
+        <v>0.2027711438029284</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02359067651428308</v>
+        <v>0.02122613091681435</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2590275345.715617</v>
+        <v>2923211535.208965</v>
       </c>
       <c r="F61" t="n">
-        <v>0.172620623978447</v>
+        <v>0.1366284968844729</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02979349109343847</v>
+        <v>0.02492555157843575</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2049999459.363087</v>
+        <v>1367053505.286266</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1493122982093334</v>
+        <v>0.1579499798855383</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04581258663126034</v>
+        <v>0.03061303946953177</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4673699289.706903</v>
+        <v>3601783766.090731</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0776089947796792</v>
+        <v>0.07651471796588651</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03925374229779156</v>
+        <v>0.03166647950439526</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4155734988.403348</v>
+        <v>3472824729.561787</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1376395274812283</v>
+        <v>0.1735383973966362</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02855813738848951</v>
+        <v>0.02364892956945849</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5414559327.596706</v>
+        <v>4360206748.291765</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1442807596781722</v>
+        <v>0.1230669451309905</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02147877402425015</v>
+        <v>0.01949983309745645</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3934620508.971641</v>
+        <v>4928513443.64451</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1550872570505503</v>
+        <v>0.1304724154943079</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03341898141078063</v>
+        <v>0.0375833913974619</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2796584954.400608</v>
+        <v>2154208457.888825</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08010038083250595</v>
+        <v>0.07812320370328472</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03306182556341582</v>
+        <v>0.0393127930022512</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5763492565.723633</v>
+        <v>4023182643.792753</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1193008198850498</v>
+        <v>0.155741670542372</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04459274692333745</v>
+        <v>0.04568620115884185</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1733675966.713804</v>
+        <v>2316862457.485536</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1115824638354443</v>
+        <v>0.1118087358371246</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05080949841316077</v>
+        <v>0.05616676119732771</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2899835454.504828</v>
+        <v>2861140182.894885</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08635279348718991</v>
+        <v>0.08916612776365251</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03943830576538752</v>
+        <v>0.03605756939661459</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4928346330.584448</v>
+        <v>4446142359.329452</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1685463635589453</v>
+        <v>0.1728494161742329</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03336563865185857</v>
+        <v>0.02162595138075789</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2207619000.252899</v>
+        <v>2214457892.563165</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1084854981307702</v>
+        <v>0.08305755186360708</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03564206795888732</v>
+        <v>0.04946840862854955</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2239450219.470757</v>
+        <v>2294428841.1058</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07076208212979908</v>
+        <v>0.08963053168306892</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03920567588815191</v>
+        <v>0.04764860602009283</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3746445517.990167</v>
+        <v>3729460096.059365</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1396203476399998</v>
+        <v>0.1306941666543437</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03465941902463499</v>
+        <v>0.02272695827941846</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2034580746.890236</v>
+        <v>1710438860.688721</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1105765537074035</v>
+        <v>0.1275106182757584</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02494170787945205</v>
+        <v>0.03606915430533058</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3276197293.549574</v>
+        <v>3520955657.158028</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07722806283077863</v>
+        <v>0.1055988734902079</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02442416485335773</v>
+        <v>0.03366171449666899</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2235055632.014049</v>
+        <v>1457355212.031232</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1772616970098403</v>
+        <v>0.1349810167769271</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02911383601927276</v>
+        <v>0.02773735618827925</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3321298360.183166</v>
+        <v>3915146950.54113</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1261310623398178</v>
+        <v>0.0932486069064338</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05360060239997607</v>
+        <v>0.03970101671197039</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1471817495.455518</v>
+        <v>1424620165.999657</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1117503434436454</v>
+        <v>0.1563738085708051</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03837773816968101</v>
+        <v>0.03082656144403834</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3962099397.21327</v>
+        <v>3676969700.729193</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1050179188816245</v>
+        <v>0.0738914043648513</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02638803160754056</v>
+        <v>0.03450372359332812</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3242966034.093026</v>
+        <v>4345054271.099079</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09029286810564324</v>
+        <v>0.09515450702163677</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03085975236164046</v>
+        <v>0.02109090371926612</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5535702411.287169</v>
+        <v>5208824277.954961</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1698820106029106</v>
+        <v>0.1554145756325837</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02808728985954816</v>
+        <v>0.0275467895372951</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2436974969.572541</v>
+        <v>1823088198.66322</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1019758114239369</v>
+        <v>0.1087837426387892</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03994707783058061</v>
+        <v>0.03454095008424486</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2198613334.528985</v>
+        <v>1959648526.950391</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09431465672177367</v>
+        <v>0.07311587676072685</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03581141842420092</v>
+        <v>0.03447890894647795</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3078550091.443943</v>
+        <v>3434358367.701517</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1777479044783496</v>
+        <v>0.1774009666880278</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03690237922267778</v>
+        <v>0.05200850913406681</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2106691904.80393</v>
+        <v>2349346325.201344</v>
       </c>
       <c r="F86" t="n">
-        <v>0.116019491930668</v>
+        <v>0.105229613945668</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01883441779266289</v>
+        <v>0.02599189213174427</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1174535691.4665</v>
+        <v>1326594745.855978</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1356127808733055</v>
+        <v>0.1670295981424106</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04023882883280763</v>
+        <v>0.0317966054368262</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3010863453.101553</v>
+        <v>2696261551.519514</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1240254272176397</v>
+        <v>0.1253853017903417</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03505906675968767</v>
+        <v>0.03388762175429775</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3004061734.486022</v>
+        <v>3082469322.985329</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1460800270760501</v>
+        <v>0.1310030841910156</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03048906446295013</v>
+        <v>0.03798089153190798</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1668157750.720379</v>
+        <v>1574306592.598282</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1215483731510263</v>
+        <v>0.1148042980494041</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03708016933705045</v>
+        <v>0.03474286439614761</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1376083660.239872</v>
+        <v>1369263386.429256</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1889309393883563</v>
+        <v>0.1791591209185313</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04330529101099296</v>
+        <v>0.05642678879659524</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2261803523.525472</v>
+        <v>2599549848.648515</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1078538249640454</v>
+        <v>0.07778580714469466</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04440171961782584</v>
+        <v>0.04090974734854676</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4058198825.469711</v>
+        <v>3439813787.440285</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1374858582485644</v>
+        <v>0.1069059948529603</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04034997061875493</v>
+        <v>0.03363198928871136</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2005390674.71069</v>
+        <v>2368606478.645224</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1593473035475182</v>
+        <v>0.112207225358712</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02960313032404136</v>
+        <v>0.03052542032151745</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2175172744.681323</v>
+        <v>2488787091.917635</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08502304842165787</v>
+        <v>0.1328935728872041</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03327991104502372</v>
+        <v>0.03242052225847517</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2149497204.922504</v>
+        <v>1570494415.249485</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1292430624639718</v>
+        <v>0.1069117518582392</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03860258126648496</v>
+        <v>0.03686739351952463</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4829674911.114318</v>
+        <v>3304200096.374711</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1273029971921656</v>
+        <v>0.1118591556611214</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02548880680857139</v>
+        <v>0.02752938651956464</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2912883726.241146</v>
+        <v>3717105720.299904</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1301088354433386</v>
+        <v>0.1181337696303388</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02868395870760497</v>
+        <v>0.02518497110772571</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2274776714.455959</v>
+        <v>2801797871.416608</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1378605273498626</v>
+        <v>0.1343533541420675</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0233287585873744</v>
+        <v>0.02945985720482923</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2993636684.50532</v>
+        <v>3141141502.135086</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1734468169966851</v>
+        <v>0.1145891967922751</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01920762588124024</v>
+        <v>0.0262638065219929</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2425186646.6208</v>
+        <v>2232569720.557124</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1744662395833039</v>
+        <v>0.2206719407398353</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04386521942843626</v>
+        <v>0.05828030204342968</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_199.xlsx
+++ b/output/fit_clients/fit_round_199.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2060549443.095486</v>
+        <v>2162032115.829932</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09569422301090807</v>
+        <v>0.08896516732766661</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02927228473477314</v>
+        <v>0.03614213080416113</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2085630548.461062</v>
+        <v>2200287064.017571</v>
       </c>
       <c r="F3" t="n">
-        <v>0.176366745943266</v>
+        <v>0.129397896022295</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03788810693939875</v>
+        <v>0.04310414492745081</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4551400005.127536</v>
+        <v>5107361144.319241</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1053921465419195</v>
+        <v>0.1088873039626265</v>
       </c>
       <c r="G4" t="n">
-        <v>0.036094454887795</v>
+        <v>0.03354505836605088</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>109</v>
+      </c>
+      <c r="J4" t="n">
+        <v>199</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2691551608.973083</v>
+        <v>4017525125.883323</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07894995969662388</v>
+        <v>0.08496934707875402</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04206881506859642</v>
+        <v>0.04897199278935839</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>83</v>
+      </c>
+      <c r="J5" t="n">
+        <v>199</v>
+      </c>
+      <c r="K5" t="n">
+        <v>134.9515331198265</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2068864957.429515</v>
+        <v>2648923543.232126</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09508650849139968</v>
+        <v>0.1486616098610561</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05480925992590036</v>
+        <v>0.03996292508144905</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2236948491.035978</v>
+        <v>2505007286.946776</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06442275665156733</v>
+        <v>0.08111461579340411</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0377000431825126</v>
+        <v>0.03081822178622967</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3179019018.195275</v>
+        <v>3604852982.778515</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1512704357251068</v>
+        <v>0.1873767921121282</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02740741280477804</v>
+        <v>0.02443233178459332</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>56</v>
+      </c>
+      <c r="J8" t="n">
+        <v>199</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1571298416.706146</v>
+        <v>1608279007.240193</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1343708581803702</v>
+        <v>0.1588690724911906</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02351251150927028</v>
+        <v>0.03069418638036954</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5002993572.483476</v>
+        <v>4495686546.689795</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1941510412087138</v>
+        <v>0.1911004049711441</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05074569899500912</v>
+        <v>0.03445446574483876</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>182</v>
+      </c>
+      <c r="J10" t="n">
+        <v>199</v>
+      </c>
+      <c r="K10" t="n">
+        <v>130.6675419508078</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3445424421.794576</v>
+        <v>4065104022.455334</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1641492817687959</v>
+        <v>0.1241628294146788</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03569939115889384</v>
+        <v>0.03284709607839093</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>81</v>
+      </c>
+      <c r="J11" t="n">
+        <v>199</v>
+      </c>
+      <c r="K11" t="n">
+        <v>130.5350602708606</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3266889059.682655</v>
+        <v>2054646575.009475</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1229313480916381</v>
+        <v>0.1724224852308702</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03343188184721093</v>
+        <v>0.0435577820479875</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5233060829.516231</v>
+        <v>3568930451.850605</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06146321620380275</v>
+        <v>0.1006794770878543</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02864815797938803</v>
+        <v>0.02712248059589351</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>100</v>
+      </c>
+      <c r="J13" t="n">
+        <v>198</v>
+      </c>
+      <c r="K13" t="n">
+        <v>92.70950669661772</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2707480562.938282</v>
+        <v>3347907007.976865</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1660131392103301</v>
+        <v>0.1522778708706283</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0274045468664567</v>
+        <v>0.03452517755533686</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>38</v>
+      </c>
+      <c r="J14" t="n">
+        <v>197</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1719428132.772361</v>
+        <v>1801879029.794594</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07315492657238057</v>
+        <v>0.09073181179790739</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04475126767083298</v>
+        <v>0.04651745111267042</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1909329696.104946</v>
+        <v>2821769776.839742</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08541768616626366</v>
+        <v>0.09910392016407429</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05067818370192067</v>
+        <v>0.04518559374069517</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4447845226.189961</v>
+        <v>3683607592.960355</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1365357935462118</v>
+        <v>0.1639056906755198</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03798643753708442</v>
+        <v>0.03229135870171072</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>95</v>
+      </c>
+      <c r="J17" t="n">
+        <v>199</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2784600179.679851</v>
+        <v>3898056962.86406</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1498514733854206</v>
+        <v>0.1474232988202616</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02884638390857816</v>
+        <v>0.02953003203143299</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" t="n">
+        <v>199</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1104907334.556224</v>
+        <v>923180928.1321986</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1359497118671721</v>
+        <v>0.1277782364946257</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02446872843618283</v>
+        <v>0.01949447818667618</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2219787119.001365</v>
+        <v>2662166289.23012</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1024330323957193</v>
+        <v>0.1562306444743214</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02834616677644813</v>
+        <v>0.02586770682126462</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2597494764.925556</v>
+        <v>1777231229.593844</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0988634233867033</v>
+        <v>0.06459291929373807</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03012090747164877</v>
+        <v>0.03921515537048513</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3672596251.688306</v>
+        <v>3172728007.857612</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1092690552996272</v>
+        <v>0.1182385972389576</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04507535452572862</v>
+        <v>0.04157925609752819</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>51</v>
+      </c>
+      <c r="J22" t="n">
+        <v>198</v>
+      </c>
+      <c r="K22" t="n">
+        <v>66.58523667760034</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1138324873.325819</v>
+        <v>1394114502.123777</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1748920568461215</v>
+        <v>0.1832025187560911</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03329589873319833</v>
+        <v>0.05363158786670055</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2608250060.529081</v>
+        <v>3856154345.853579</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1034928594876925</v>
+        <v>0.1343454697940493</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0262497321897784</v>
+        <v>0.02484323358483517</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>61</v>
+      </c>
+      <c r="J24" t="n">
+        <v>199</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1216658431.011119</v>
+        <v>936789451.2324733</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1117004793359111</v>
+        <v>0.07548085977407626</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02879488549345596</v>
+        <v>0.02150381184351015</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1082408938.1475</v>
+        <v>1179715589.74146</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1071370441979115</v>
+        <v>0.121133134137892</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0360862150678446</v>
+        <v>0.02685953001474107</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3281676936.140016</v>
+        <v>2890403691.303276</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1265247240668813</v>
+        <v>0.1286578252929942</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02338139827539183</v>
+        <v>0.01719822209346705</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>79</v>
+      </c>
+      <c r="J27" t="n">
+        <v>196</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2726997141.093264</v>
+        <v>2563992727.721742</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1367272377285597</v>
+        <v>0.1313418747175726</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03790842131552305</v>
+        <v>0.04508064146226386</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>41</v>
+      </c>
+      <c r="J28" t="n">
+        <v>197</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3635791955.753507</v>
+        <v>4069089779.361983</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1508861671083785</v>
+        <v>0.1473443783508245</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04042364695987491</v>
+        <v>0.03539901264665291</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>188</v>
+      </c>
+      <c r="J29" t="n">
+        <v>199</v>
+      </c>
+      <c r="K29" t="n">
+        <v>136.3158175043495</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1539000400.372615</v>
+        <v>2023779037.271711</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1380318682497912</v>
+        <v>0.1076897569317026</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03819247893011371</v>
+        <v>0.03576657541659279</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>903312809.716661</v>
+        <v>1178951427.187432</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08179398684946751</v>
+        <v>0.08178743754732674</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04142401926107767</v>
+        <v>0.04752668274047534</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1632706802.359434</v>
+        <v>1683557222.842315</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08087144124740897</v>
+        <v>0.08219164959175758</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02997268060242117</v>
+        <v>0.02524132125770086</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2477836775.405574</v>
+        <v>2806844290.274897</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1993073015059087</v>
+        <v>0.1732952517269282</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05829641423456994</v>
+        <v>0.05097834064366812</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1478521997.120202</v>
+        <v>1288684126.439757</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07584652419185307</v>
+        <v>0.1048124626161965</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02052393039279926</v>
+        <v>0.01911852431342247</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>867568594.8593693</v>
+        <v>1083714413.081765</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1185133760283347</v>
+        <v>0.1107962673953992</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03459312276246922</v>
+        <v>0.03441878238547306</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2292578869.759619</v>
+        <v>2045631962.614181</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1429445436473653</v>
+        <v>0.14254716866571</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02088054707083432</v>
+        <v>0.01777515732661446</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2396817894.461952</v>
+        <v>2910499682.275644</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1059402203487398</v>
+        <v>0.1081027055897889</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04161165996111974</v>
+        <v>0.02702312780498752</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2071812659.820481</v>
+        <v>1470670270.136722</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08688075912518181</v>
+        <v>0.09680646757954443</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03164928318778838</v>
+        <v>0.02423564753573892</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1715998469.857782</v>
+        <v>1922456232.157852</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1732777894897472</v>
+        <v>0.1519208930998919</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03011931608382249</v>
+        <v>0.03286315946234167</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1426881717.133152</v>
+        <v>1817564721.252574</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1561509005549997</v>
+        <v>0.1547365553003052</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04626388879198501</v>
+        <v>0.03893084496503114</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2753174278.230395</v>
+        <v>2790643348.73586</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1593915599616289</v>
+        <v>0.1003348492161266</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02924487050968119</v>
+        <v>0.04318700944110629</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3823635038.801029</v>
+        <v>3617705772.477006</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08480008028233607</v>
+        <v>0.1240793909437573</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03109067019126592</v>
+        <v>0.03715322217112858</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>78</v>
+      </c>
+      <c r="J42" t="n">
+        <v>199</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2876113470.530822</v>
+        <v>2122411879.410482</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1981308258226242</v>
+        <v>0.1425464649128789</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02485054616666766</v>
+        <v>0.02465579117605137</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1680818434.299011</v>
+        <v>2313494534.840886</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09019964805836875</v>
+        <v>0.09094242314331941</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02929013859889109</v>
+        <v>0.03430012132559444</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1548129913.103851</v>
+        <v>2050661149.063072</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1346039082645273</v>
+        <v>0.1326456721661638</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05253643685882418</v>
+        <v>0.04842253441962688</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5330779465.228202</v>
+        <v>5215915011.752428</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1386786929637614</v>
+        <v>0.1741632125069021</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03810243367233693</v>
+        <v>0.05466963965346562</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>114</v>
+      </c>
+      <c r="J46" t="n">
+        <v>198</v>
+      </c>
+      <c r="K46" t="n">
+        <v>121.0103081178585</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4303691150.814493</v>
+        <v>3873764727.607073</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1488592854267558</v>
+        <v>0.1699327782382693</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04202034505100415</v>
+        <v>0.0373690124133297</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>89</v>
+      </c>
+      <c r="J47" t="n">
+        <v>198</v>
+      </c>
+      <c r="K47" t="n">
+        <v>90.39614592153418</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3014825540.424739</v>
+        <v>4675404898.571254</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06915605713766089</v>
+        <v>0.1036976935186375</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03452544958132189</v>
+        <v>0.03725555873304756</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>96</v>
+      </c>
+      <c r="J48" t="n">
+        <v>199</v>
+      </c>
+      <c r="K48" t="n">
+        <v>124.745656392385</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1832273418.452744</v>
+        <v>1494672645.368216</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1819521622990134</v>
+        <v>0.1462344356629283</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0405309624514499</v>
+        <v>0.03505890656198474</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2857954578.547839</v>
+        <v>3874049754.465522</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1349298014851359</v>
+        <v>0.1714309166292189</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03292089524980972</v>
+        <v>0.04776741960514192</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>62</v>
+      </c>
+      <c r="J50" t="n">
+        <v>199</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1044051602.610229</v>
+        <v>1442868272.31947</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1580212392976468</v>
+        <v>0.1329577996271836</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03633564811363886</v>
+        <v>0.03944697507107146</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4284024889.179441</v>
+        <v>4619869502.391062</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1344984123931701</v>
+        <v>0.08774044957699358</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05126641846773729</v>
+        <v>0.04688209459693098</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>137</v>
+      </c>
+      <c r="J52" t="n">
+        <v>199</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3349422038.990908</v>
+        <v>2468218121.868469</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1293262861668841</v>
+        <v>0.169990865440098</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03350775229050862</v>
+        <v>0.02518500248853776</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>185</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3632553758.78386</v>
+        <v>4855641437.059186</v>
       </c>
       <c r="F54" t="n">
-        <v>0.141510933301647</v>
+        <v>0.1101878351772515</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04489263886905989</v>
+        <v>0.04638920152997157</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>101</v>
+      </c>
+      <c r="J54" t="n">
+        <v>199</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4895599555.636208</v>
+        <v>3694191353.374145</v>
       </c>
       <c r="F55" t="n">
-        <v>0.197469522919953</v>
+        <v>0.1627538811238486</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02754595358176699</v>
+        <v>0.02710212125101836</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>89</v>
+      </c>
+      <c r="J55" t="n">
+        <v>198</v>
+      </c>
+      <c r="K55" t="n">
+        <v>96.12373869695111</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1853612547.107419</v>
+        <v>1348512941.853322</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1068456086880547</v>
+        <v>0.1568953392769033</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03860779307932532</v>
+        <v>0.05140980971731408</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3079336667.217035</v>
+        <v>3282385788.357196</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1228260666054515</v>
+        <v>0.1116959607683182</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02379871108140093</v>
+        <v>0.01973821873943912</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>79</v>
+      </c>
+      <c r="J57" t="n">
+        <v>196</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1725925065.162632</v>
+        <v>1663790576.700232</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1696182693697129</v>
+        <v>0.126353391671758</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03374553737058954</v>
+        <v>0.03560659064753199</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3777177101.483457</v>
+        <v>5114484362.921083</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1133346376841061</v>
+        <v>0.09806083833846031</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03175277784317616</v>
+        <v>0.04258273531735528</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>96</v>
+      </c>
+      <c r="J59" t="n">
+        <v>198</v>
+      </c>
+      <c r="K59" t="n">
+        <v>110.8476546866145</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2766631123.022254</v>
+        <v>3766760336.586306</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2027711438029284</v>
+        <v>0.1995854816545676</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02122613091681435</v>
+        <v>0.02465076571648308</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>28</v>
+      </c>
+      <c r="J60" t="n">
+        <v>199</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2923211535.208965</v>
+        <v>2526084356.19335</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1366284968844729</v>
+        <v>0.1667658076797425</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02492555157843575</v>
+        <v>0.02304626757794869</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1367053505.286266</v>
+        <v>1951801346.146823</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1579499798855383</v>
+        <v>0.1503080459203744</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03061303946953177</v>
+        <v>0.03409526835846254</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3601783766.090731</v>
+        <v>4500291267.201251</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07651471796588651</v>
+        <v>0.09212481018204993</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03166647950439526</v>
+        <v>0.03301489587245521</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>97</v>
+      </c>
+      <c r="J63" t="n">
+        <v>199</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3472824729.561787</v>
+        <v>4555248560.951767</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1735383973966362</v>
+        <v>0.1900574258436782</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02364892956945849</v>
+        <v>0.02440620292911031</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>98</v>
+      </c>
+      <c r="J64" t="n">
+        <v>198</v>
+      </c>
+      <c r="K64" t="n">
+        <v>115.2020352015776</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4360206748.291765</v>
+        <v>5957278446.812485</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1230669451309905</v>
+        <v>0.1650962714829454</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01949983309745645</v>
+        <v>0.03013550859164074</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>161</v>
+      </c>
+      <c r="J65" t="n">
+        <v>198</v>
+      </c>
+      <c r="K65" t="n">
+        <v>123.675015773761</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4928513443.64451</v>
+        <v>5130722494.334336</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1304724154943079</v>
+        <v>0.1398206596485315</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0375833913974619</v>
+        <v>0.03131510916162538</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>98</v>
+      </c>
+      <c r="J66" t="n">
+        <v>198</v>
+      </c>
+      <c r="K66" t="n">
+        <v>110.9011896359277</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2154208457.888825</v>
+        <v>2218744241.442498</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07812320370328472</v>
+        <v>0.07907962699381645</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0393127930022512</v>
+        <v>0.03546324629389609</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4023182643.792753</v>
+        <v>3963940211.892579</v>
       </c>
       <c r="F68" t="n">
-        <v>0.155741670542372</v>
+        <v>0.1188623967864055</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04568620115884185</v>
+        <v>0.03359043541003633</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>100</v>
+      </c>
+      <c r="J68" t="n">
+        <v>199</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2316862457.485536</v>
+        <v>2231012918.98004</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1118087358371246</v>
+        <v>0.1128363839721362</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05616676119732771</v>
+        <v>0.04261980515093203</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2861140182.894885</v>
+        <v>2448339794.306582</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08916612776365251</v>
+        <v>0.09754758359382373</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03605756939661459</v>
+        <v>0.03727083421560416</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>30</v>
+      </c>
+      <c r="J70" t="n">
+        <v>198</v>
+      </c>
+      <c r="K70" t="n">
+        <v>39.93787844195265</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4446142359.329452</v>
+        <v>3453977223.279514</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1728494161742329</v>
+        <v>0.1186312277992466</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02162595138075789</v>
+        <v>0.02631490828563086</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>153</v>
+      </c>
+      <c r="J71" t="n">
+        <v>198</v>
+      </c>
+      <c r="K71" t="n">
+        <v>89.20033818622586</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2214457892.563165</v>
+        <v>1975979141.354055</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08305755186360708</v>
+        <v>0.06700684930009997</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04946840862854955</v>
+        <v>0.04592774346856214</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2294428841.1058</v>
+        <v>2576878808.921304</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08963053168306892</v>
+        <v>0.08162160858620891</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04764860602009283</v>
+        <v>0.04904400956819936</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3729460096.059365</v>
+        <v>2698624006.854239</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1306941666543437</v>
+        <v>0.1207039884359718</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02272695827941846</v>
+        <v>0.03063628719431675</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>57</v>
+      </c>
+      <c r="J74" t="n">
+        <v>197</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1710438860.688721</v>
+        <v>2142139717.03102</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1275106182757584</v>
+        <v>0.1034137405628615</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03606915430533058</v>
+        <v>0.03716067690196978</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3520955657.158028</v>
+        <v>3545664705.675873</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1055988734902079</v>
+        <v>0.1074680802313778</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03366171449666899</v>
+        <v>0.0299884797017102</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>91</v>
+      </c>
+      <c r="J76" t="n">
+        <v>198</v>
+      </c>
+      <c r="K76" t="n">
+        <v>78.28799622755839</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1457355212.031232</v>
+        <v>1512996686.344679</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1349810167769271</v>
+        <v>0.1595687165825803</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02773735618827925</v>
+        <v>0.01978831621848219</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3915146950.54113</v>
+        <v>3377538176.657936</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0932486069064338</v>
+        <v>0.1269031396088927</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03970101671197039</v>
+        <v>0.04125976390473499</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>99</v>
+      </c>
+      <c r="J78" t="n">
+        <v>195</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1424620165.999657</v>
+        <v>1843260229.45667</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1563738085708051</v>
+        <v>0.128434994283114</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03082656144403834</v>
+        <v>0.03805531260908227</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3676969700.729193</v>
+        <v>5386423077.079004</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0738914043648513</v>
+        <v>0.08787771482555584</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03450372359332812</v>
+        <v>0.03778458798677271</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>97</v>
+      </c>
+      <c r="J80" t="n">
+        <v>199</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4345054271.099079</v>
+        <v>4891121636.403853</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09515450702163677</v>
+        <v>0.1047519490932219</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02109090371926612</v>
+        <v>0.02172022819264561</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>91</v>
+      </c>
+      <c r="J81" t="n">
+        <v>199</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5208824277.954961</v>
+        <v>3621387927.856061</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1554145756325837</v>
+        <v>0.147773346824093</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0275467895372951</v>
+        <v>0.01958308036175376</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>147</v>
+      </c>
+      <c r="J82" t="n">
+        <v>198</v>
+      </c>
+      <c r="K82" t="n">
+        <v>101.1382789320202</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1823088198.66322</v>
+        <v>1502744997.917102</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1087837426387892</v>
+        <v>0.1209761857063514</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03454095008424486</v>
+        <v>0.04159927356881427</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1959648526.950391</v>
+        <v>1914871966.203782</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07311587676072685</v>
+        <v>0.1130376419779578</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03447890894647795</v>
+        <v>0.04323166591619497</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3434358367.701517</v>
+        <v>2921905620.297461</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1774009666880278</v>
+        <v>0.1124014103001018</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05200850913406681</v>
+        <v>0.05243834611555014</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>28</v>
+      </c>
+      <c r="J85" t="n">
+        <v>197</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2349346325.201344</v>
+        <v>1867682280.787886</v>
       </c>
       <c r="F86" t="n">
-        <v>0.105229613945668</v>
+        <v>0.1167967634556125</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02599189213174427</v>
+        <v>0.0274986193052565</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1326594745.855978</v>
+        <v>1223973091.072871</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1670295981424106</v>
+        <v>0.1212159260662517</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0317966054368262</v>
+        <v>0.04312629185090053</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2696261551.519514</v>
+        <v>2850063866.855196</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1253853017903417</v>
+        <v>0.1186721902451814</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03388762175429775</v>
+        <v>0.03287491535935213</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>192</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3082469322.985329</v>
+        <v>3212445615.271066</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1310030841910156</v>
+        <v>0.1375662411243647</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03798089153190798</v>
+        <v>0.02732034574706819</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1574306592.598282</v>
+        <v>2003957205.245839</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1148042980494041</v>
+        <v>0.1178127527541225</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03474286439614761</v>
+        <v>0.0342850109889004</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1369263386.429256</v>
+        <v>2061800158.211719</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1791591209185313</v>
+        <v>0.1918192461146432</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05642678879659524</v>
+        <v>0.05473196013541039</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2599549848.648515</v>
+        <v>2453150737.589114</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07778580714469466</v>
+        <v>0.1092696245181471</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04090974734854676</v>
+        <v>0.03380754037303692</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3439813787.440285</v>
+        <v>5037335082.176656</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1069059948529603</v>
+        <v>0.1338701087073574</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03363198928871136</v>
+        <v>0.04383649661820517</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>90</v>
+      </c>
+      <c r="J93" t="n">
+        <v>198</v>
+      </c>
+      <c r="K93" t="n">
+        <v>115.8833434164853</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2368606478.645224</v>
+        <v>2392346999.147701</v>
       </c>
       <c r="F94" t="n">
-        <v>0.112207225358712</v>
+        <v>0.1089053544792795</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03052542032151745</v>
+        <v>0.0278136093437923</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2488787091.917635</v>
+        <v>2790943195.794665</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1328935728872041</v>
+        <v>0.113363021312151</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03242052225847517</v>
+        <v>0.0405806306702147</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1570494415.249485</v>
+        <v>1591656304.446851</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1069117518582392</v>
+        <v>0.09949712975573081</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03686739351952463</v>
+        <v>0.04103757887960572</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3304200096.374711</v>
+        <v>3533369503.154843</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1118591556611214</v>
+        <v>0.1611161325376657</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02752938651956464</v>
+        <v>0.01827767208603811</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>96</v>
+      </c>
+      <c r="J97" t="n">
+        <v>199</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3717105720.299904</v>
+        <v>2715844791.413744</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1181337696303388</v>
+        <v>0.08130718732141083</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02518497110772571</v>
+        <v>0.02176164033075543</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>49</v>
+      </c>
+      <c r="J98" t="n">
+        <v>197</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2801797871.416608</v>
+        <v>2069817994.92917</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1343533541420675</v>
+        <v>0.1113773103898009</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02945985720482923</v>
+        <v>0.03342553790240121</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3141141502.135086</v>
+        <v>4619716783.824176</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1145891967922751</v>
+        <v>0.1668109848339814</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0262638065219929</v>
+        <v>0.0225493474438206</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>82</v>
+      </c>
+      <c r="J100" t="n">
+        <v>198</v>
+      </c>
+      <c r="K100" t="n">
+        <v>115.9042047378381</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2232569720.557124</v>
+        <v>3284017646.876475</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2206719407398353</v>
+        <v>0.1539367658671009</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05828030204342968</v>
+        <v>0.03961446863473188</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
